--- a/data/pca/factorExposure/factorExposure_2010-02-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-04.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.006388657912227123</v>
+        <v>0.01706748350538245</v>
       </c>
       <c r="C2">
-        <v>0.01672752379852488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.0009708846811467071</v>
+      </c>
+      <c r="D2">
+        <v>0.007114606034043941</v>
+      </c>
+      <c r="E2">
+        <v>0.0005514718646966753</v>
+      </c>
+      <c r="F2">
+        <v>0.009109874997937221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03312527352981863</v>
+        <v>0.09407827551076907</v>
       </c>
       <c r="C4">
-        <v>0.1224025955108541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01577272586289518</v>
+      </c>
+      <c r="D4">
+        <v>0.08283576689570596</v>
+      </c>
+      <c r="E4">
+        <v>0.02763340784858821</v>
+      </c>
+      <c r="F4">
+        <v>-0.03077366988854443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04445636870864382</v>
+        <v>0.1566324226630339</v>
       </c>
       <c r="C6">
-        <v>0.1055010230746211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02501199612615431</v>
+      </c>
+      <c r="D6">
+        <v>-0.02336414055948848</v>
+      </c>
+      <c r="E6">
+        <v>0.009025792354202644</v>
+      </c>
+      <c r="F6">
+        <v>-0.04690083897807192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.009946185708898778</v>
+        <v>0.06027188770335171</v>
       </c>
       <c r="C7">
-        <v>0.07401056791667467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0007561002654456452</v>
+      </c>
+      <c r="D7">
+        <v>0.05117214187742815</v>
+      </c>
+      <c r="E7">
+        <v>0.01115303460969163</v>
+      </c>
+      <c r="F7">
+        <v>-0.04248824472978581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.00618118610613257</v>
+        <v>0.05850046186245753</v>
       </c>
       <c r="C8">
-        <v>0.05450311015195795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01344593546783336</v>
+      </c>
+      <c r="D8">
+        <v>0.03192215336306891</v>
+      </c>
+      <c r="E8">
+        <v>0.01664011688470784</v>
+      </c>
+      <c r="F8">
+        <v>0.02772149495482083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02865471500155199</v>
+        <v>0.07171473089177732</v>
       </c>
       <c r="C9">
-        <v>0.09610191040898663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01166680882872981</v>
+      </c>
+      <c r="D9">
+        <v>0.08473185042057771</v>
+      </c>
+      <c r="E9">
+        <v>0.02236773633577979</v>
+      </c>
+      <c r="F9">
+        <v>-0.04640084518800866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.006575362089343753</v>
+        <v>0.09517854310905662</v>
       </c>
       <c r="C10">
-        <v>0.04375902368321016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01842121605866703</v>
+      </c>
+      <c r="D10">
+        <v>-0.1707598927466213</v>
+      </c>
+      <c r="E10">
+        <v>-0.03890548044128773</v>
+      </c>
+      <c r="F10">
+        <v>0.05729971076583875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03149590390959443</v>
+        <v>0.08780758625521513</v>
       </c>
       <c r="C11">
-        <v>0.1053908729801309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01127514462645819</v>
+      </c>
+      <c r="D11">
+        <v>0.1170167211315548</v>
+      </c>
+      <c r="E11">
+        <v>0.04665486114588916</v>
+      </c>
+      <c r="F11">
+        <v>-0.02001404450678393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02839864749073465</v>
+        <v>0.09226846637382878</v>
       </c>
       <c r="C12">
-        <v>0.1127749823523103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008740192527289824</v>
+      </c>
+      <c r="D12">
+        <v>0.1294238566174064</v>
+      </c>
+      <c r="E12">
+        <v>0.04732812332530009</v>
+      </c>
+      <c r="F12">
+        <v>-0.02299083564762162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.008178434576916331</v>
+        <v>0.04296483367870294</v>
       </c>
       <c r="C13">
-        <v>0.040401985344401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.004081035831926063</v>
+      </c>
+      <c r="D13">
+        <v>0.0484212207651341</v>
+      </c>
+      <c r="E13">
+        <v>-0.01146088681687578</v>
+      </c>
+      <c r="F13">
+        <v>-0.00301390620329108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01530466165729854</v>
+        <v>0.02224019924387143</v>
       </c>
       <c r="C14">
-        <v>0.02451835429432431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01413624561848706</v>
+      </c>
+      <c r="D14">
+        <v>0.03347827842333249</v>
+      </c>
+      <c r="E14">
+        <v>0.01692964371278698</v>
+      </c>
+      <c r="F14">
+        <v>-0.01377694724273657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01207409064262904</v>
+        <v>0.03124607736712304</v>
       </c>
       <c r="C15">
-        <v>0.02591655799737201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005213472602368717</v>
+      </c>
+      <c r="D15">
+        <v>0.04487378810850888</v>
+      </c>
+      <c r="E15">
+        <v>0.006876382425306377</v>
+      </c>
+      <c r="F15">
+        <v>-0.02200988574615819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01954097244682126</v>
+        <v>0.07321880870382233</v>
       </c>
       <c r="C16">
-        <v>0.1127410176545151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002265049648922716</v>
+      </c>
+      <c r="D16">
+        <v>0.1265202898108072</v>
+      </c>
+      <c r="E16">
+        <v>0.06250398108112136</v>
+      </c>
+      <c r="F16">
+        <v>-0.02319756492785615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02670127608619903</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003577257940231574</v>
+      </c>
+      <c r="D18">
+        <v>0.02077214009823504</v>
+      </c>
+      <c r="E18">
+        <v>-0.005502270810945769</v>
+      </c>
+      <c r="F18">
+        <v>0.009826487753197501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01477020505535342</v>
+        <v>0.05993605591452768</v>
       </c>
       <c r="C20">
-        <v>0.06427654631790995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0006358111129659964</v>
+      </c>
+      <c r="D20">
+        <v>0.07702853220817202</v>
+      </c>
+      <c r="E20">
+        <v>0.05562278446413851</v>
+      </c>
+      <c r="F20">
+        <v>-0.0211565977314425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01108831710868151</v>
+        <v>0.03896109944733993</v>
       </c>
       <c r="C21">
-        <v>0.02198709350465537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006544058154434928</v>
+      </c>
+      <c r="D21">
+        <v>0.03688735556472859</v>
+      </c>
+      <c r="E21">
+        <v>-0.006099624926091985</v>
+      </c>
+      <c r="F21">
+        <v>0.02696231440371906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.002259358912344642</v>
+        <v>0.04507353511935122</v>
       </c>
       <c r="C22">
-        <v>0.03855388258520726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0007131255052956468</v>
+      </c>
+      <c r="D22">
+        <v>0.002896750252063568</v>
+      </c>
+      <c r="E22">
+        <v>0.02876475721356391</v>
+      </c>
+      <c r="F22">
+        <v>0.03148996574329366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.002273953845229477</v>
+        <v>0.04508040201697724</v>
       </c>
       <c r="C23">
-        <v>0.03858661828987891</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0007287524461230915</v>
+      </c>
+      <c r="D23">
+        <v>0.003033381464413779</v>
+      </c>
+      <c r="E23">
+        <v>0.0290801620029542</v>
+      </c>
+      <c r="F23">
+        <v>0.03101446274407983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02119433398880617</v>
+        <v>0.07958882267818616</v>
       </c>
       <c r="C24">
-        <v>0.1097106432186294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002908101611341498</v>
+      </c>
+      <c r="D24">
+        <v>0.1206008797766665</v>
+      </c>
+      <c r="E24">
+        <v>0.05058591253263107</v>
+      </c>
+      <c r="F24">
+        <v>-0.02351236742499648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02607160404531132</v>
+        <v>0.08507936778868044</v>
       </c>
       <c r="C25">
-        <v>0.1167208040721885</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.005119747678886281</v>
+      </c>
+      <c r="D25">
+        <v>0.1094769054415303</v>
+      </c>
+      <c r="E25">
+        <v>0.0330419663524353</v>
+      </c>
+      <c r="F25">
+        <v>-0.02529590766484661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02378100846147797</v>
+        <v>0.05595423342983809</v>
       </c>
       <c r="C26">
-        <v>0.04749833362476551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.0145034521069094</v>
+      </c>
+      <c r="D26">
+        <v>0.04186507493316202</v>
+      </c>
+      <c r="E26">
+        <v>0.02718361923944326</v>
+      </c>
+      <c r="F26">
+        <v>0.01183821882903817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.006473417540584851</v>
+        <v>0.1420168981407932</v>
       </c>
       <c r="C28">
-        <v>0.03043217801691761</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01771065696319351</v>
+      </c>
+      <c r="D28">
+        <v>-0.2638691612824981</v>
+      </c>
+      <c r="E28">
+        <v>-0.07048947885056092</v>
+      </c>
+      <c r="F28">
+        <v>-0.007741308869804355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01580907565261865</v>
+        <v>0.02649770216379453</v>
       </c>
       <c r="C29">
-        <v>0.02734795074908828</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.008242463437683572</v>
+      </c>
+      <c r="D29">
+        <v>0.03308941870370438</v>
+      </c>
+      <c r="E29">
+        <v>0.01090535527686115</v>
+      </c>
+      <c r="F29">
+        <v>0.0109055199115333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.02190943487368571</v>
+        <v>0.06148800161271437</v>
       </c>
       <c r="C30">
-        <v>0.1245613827833307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004534487110795752</v>
+      </c>
+      <c r="D30">
+        <v>0.08679072896831358</v>
+      </c>
+      <c r="E30">
+        <v>0.02073432614421998</v>
+      </c>
+      <c r="F30">
+        <v>-0.08112101252218502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02499116354025758</v>
+        <v>0.04925719387048804</v>
       </c>
       <c r="C31">
-        <v>0.03365246213811048</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01517162115020643</v>
+      </c>
+      <c r="D31">
+        <v>0.0254163044163278</v>
+      </c>
+      <c r="E31">
+        <v>0.02726190640650915</v>
+      </c>
+      <c r="F31">
+        <v>0.003230548417973499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01111997596739994</v>
+        <v>0.04933445621871919</v>
       </c>
       <c r="C32">
-        <v>0.06131585630623089</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001177426693693313</v>
+      </c>
+      <c r="D32">
+        <v>0.03634086332356761</v>
+      </c>
+      <c r="E32">
+        <v>0.0305685860726888</v>
+      </c>
+      <c r="F32">
+        <v>-0.001053678868614018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02722560384590441</v>
+        <v>0.08934254712231246</v>
       </c>
       <c r="C33">
-        <v>0.1125073494174463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008407673434289694</v>
+      </c>
+      <c r="D33">
+        <v>0.09853133006162675</v>
+      </c>
+      <c r="E33">
+        <v>0.04529590787042344</v>
+      </c>
+      <c r="F33">
+        <v>-0.03360715353488148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.03071645171080263</v>
+        <v>0.06813200430536237</v>
       </c>
       <c r="C34">
-        <v>0.09471270215474577</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.011643155433511</v>
+      </c>
+      <c r="D34">
+        <v>0.1059332181445128</v>
+      </c>
+      <c r="E34">
+        <v>0.03472672384457365</v>
+      </c>
+      <c r="F34">
+        <v>-0.03227133986881987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003280479134035036</v>
+        <v>0.02433851908850638</v>
       </c>
       <c r="C35">
-        <v>0.01454743061038131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002387713303089387</v>
+      </c>
+      <c r="D35">
+        <v>0.01269591319556602</v>
+      </c>
+      <c r="E35">
+        <v>0.01156473010643176</v>
+      </c>
+      <c r="F35">
+        <v>-0.001063564708565839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01186093111575785</v>
+        <v>0.02489108248633358</v>
       </c>
       <c r="C36">
-        <v>0.02797276884097961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007335741586856082</v>
+      </c>
+      <c r="D36">
+        <v>0.03998622930758221</v>
+      </c>
+      <c r="E36">
+        <v>0.01559429447951429</v>
+      </c>
+      <c r="F36">
+        <v>-0.01452629899646233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0008712522558954755</v>
+        <v>0.001601205400103225</v>
       </c>
       <c r="C38">
-        <v>0.005741680643197512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0002553617883898208</v>
+      </c>
+      <c r="D38">
+        <v>0.0004810924168691739</v>
+      </c>
+      <c r="E38">
+        <v>0.001033361978790505</v>
+      </c>
+      <c r="F38">
+        <v>0.0006381632236862361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04532526556479494</v>
+        <v>0.1069932807187587</v>
       </c>
       <c r="C39">
-        <v>0.1698014245745201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01684397629601989</v>
+      </c>
+      <c r="D39">
+        <v>0.1532804845215955</v>
+      </c>
+      <c r="E39">
+        <v>0.0591802369574085</v>
+      </c>
+      <c r="F39">
+        <v>-0.02850492412704983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009407555059683461</v>
+        <v>0.03811714035613317</v>
       </c>
       <c r="C40">
-        <v>0.01040132955423822</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007248877435754851</v>
+      </c>
+      <c r="D40">
+        <v>0.03297639020258199</v>
+      </c>
+      <c r="E40">
+        <v>0.002640222110393103</v>
+      </c>
+      <c r="F40">
+        <v>0.01625753630157301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01435715125086235</v>
+        <v>0.02647510733923734</v>
       </c>
       <c r="C41">
-        <v>0.02113792891728322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006593334269889022</v>
+      </c>
+      <c r="D41">
+        <v>0.01157865346719696</v>
+      </c>
+      <c r="E41">
+        <v>0.01282819953798283</v>
+      </c>
+      <c r="F41">
+        <v>0.00647457116908241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01283850511339749</v>
+        <v>0.04023363917026587</v>
       </c>
       <c r="C43">
-        <v>0.02570627823720392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006732132254684674</v>
+      </c>
+      <c r="D43">
+        <v>0.02068741690038511</v>
+      </c>
+      <c r="E43">
+        <v>0.02439964985002349</v>
+      </c>
+      <c r="F43">
+        <v>0.01196658501274639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03588426238050704</v>
+        <v>0.07671579599035003</v>
       </c>
       <c r="C44">
-        <v>0.1330573257550255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.02115244548299242</v>
+      </c>
+      <c r="D44">
+        <v>0.09763509942670009</v>
+      </c>
+      <c r="E44">
+        <v>0.06653490947314739</v>
+      </c>
+      <c r="F44">
+        <v>-0.1513315215054656</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.00477295506073952</v>
+        <v>0.02393309745668869</v>
       </c>
       <c r="C46">
-        <v>0.01185837283811081</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003815295904672244</v>
+      </c>
+      <c r="D46">
+        <v>0.01235659434040472</v>
+      </c>
+      <c r="E46">
+        <v>0.02203248898535008</v>
+      </c>
+      <c r="F46">
+        <v>0.003255861479464881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01589587636099603</v>
+        <v>0.05077694201308464</v>
       </c>
       <c r="C47">
-        <v>0.04087456878282138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003448627279976228</v>
+      </c>
+      <c r="D47">
+        <v>0.01313653301413619</v>
+      </c>
+      <c r="E47">
+        <v>0.02303076346471571</v>
+      </c>
+      <c r="F47">
+        <v>0.0337181000781045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01454114859526179</v>
+        <v>0.04825244635488892</v>
       </c>
       <c r="C48">
-        <v>0.04629114629788124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002575627481810653</v>
+      </c>
+      <c r="D48">
+        <v>0.05095270673556747</v>
+      </c>
+      <c r="E48">
+        <v>-0.005968531418874804</v>
+      </c>
+      <c r="F48">
+        <v>-0.008365525695288581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.04399576765064413</v>
+        <v>0.2025593308056779</v>
       </c>
       <c r="C49">
-        <v>0.2043218957030188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01820705372611456</v>
+      </c>
+      <c r="D49">
+        <v>-0.01273336278660328</v>
+      </c>
+      <c r="E49">
+        <v>0.03026242963826897</v>
+      </c>
+      <c r="F49">
+        <v>-0.03552888309296246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0206299791794629</v>
+        <v>0.04936793657682361</v>
       </c>
       <c r="C50">
-        <v>0.04117739708359489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.0112064805142623</v>
+      </c>
+      <c r="D50">
+        <v>0.02466656869748029</v>
+      </c>
+      <c r="E50">
+        <v>0.0291792885901288</v>
+      </c>
+      <c r="F50">
+        <v>-0.007649490336260141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.001156242808245282</v>
+        <v>0.002291854166387612</v>
       </c>
       <c r="C51">
-        <v>0.007419435780777676</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0005848307270428282</v>
+      </c>
+      <c r="D51">
+        <v>-0.00231840770010749</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001015005778465632</v>
+      </c>
+      <c r="F51">
+        <v>-0.003691020016433288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03486718728204545</v>
+        <v>0.1453040193049277</v>
       </c>
       <c r="C52">
-        <v>0.1402374663190549</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01452261844821959</v>
+      </c>
+      <c r="D52">
+        <v>0.04774423736589903</v>
+      </c>
+      <c r="E52">
+        <v>0.02113477595785148</v>
+      </c>
+      <c r="F52">
+        <v>-0.0438756291399062</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03482487868569679</v>
+        <v>0.1736688258719465</v>
       </c>
       <c r="C53">
-        <v>0.15554456839328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01775222197828474</v>
+      </c>
+      <c r="D53">
+        <v>0.006133907770195594</v>
+      </c>
+      <c r="E53">
+        <v>0.03087872239013082</v>
+      </c>
+      <c r="F53">
+        <v>-0.07476790183724347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01432965269778151</v>
+        <v>0.02171096063516269</v>
       </c>
       <c r="C54">
-        <v>0.04990894141554692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01245135145316729</v>
+      </c>
+      <c r="D54">
+        <v>0.03364704270084459</v>
+      </c>
+      <c r="E54">
+        <v>0.01625622394870832</v>
+      </c>
+      <c r="F54">
+        <v>0.00246467372963054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02650907207250531</v>
+        <v>0.1140484482141338</v>
       </c>
       <c r="C55">
-        <v>0.08723112411665188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01594591454587869</v>
+      </c>
+      <c r="D55">
+        <v>0.01028575214557561</v>
+      </c>
+      <c r="E55">
+        <v>0.02826681767535471</v>
+      </c>
+      <c r="F55">
+        <v>-0.04837897723190681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03835379556592684</v>
+        <v>0.1779290011773215</v>
       </c>
       <c r="C56">
-        <v>0.1567215046040269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01510547046965395</v>
+      </c>
+      <c r="D56">
+        <v>0.003134194309641257</v>
+      </c>
+      <c r="E56">
+        <v>0.0374393655867264</v>
+      </c>
+      <c r="F56">
+        <v>-0.05532151240863922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01524519393117504</v>
+        <v>0.04668354588305211</v>
       </c>
       <c r="C58">
-        <v>0.04363602530276909</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001226738473223609</v>
+      </c>
+      <c r="D58">
+        <v>0.06737129809085107</v>
+      </c>
+      <c r="E58">
+        <v>0.02726468408550481</v>
+      </c>
+      <c r="F58">
+        <v>0.0394887254472136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01507257986742009</v>
+        <v>0.1708861904704052</v>
       </c>
       <c r="C59">
-        <v>0.09093938883893973</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01830111402488199</v>
+      </c>
+      <c r="D59">
+        <v>-0.2207206974652421</v>
+      </c>
+      <c r="E59">
+        <v>-0.04664083498033037</v>
+      </c>
+      <c r="F59">
+        <v>0.03168273336007076</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.04089622680966117</v>
+        <v>0.2345929192846943</v>
       </c>
       <c r="C60">
-        <v>0.2746729221583626</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.003340158799182652</v>
+      </c>
+      <c r="D60">
+        <v>0.03990057174551043</v>
+      </c>
+      <c r="E60">
+        <v>0.01161170439534146</v>
+      </c>
+      <c r="F60">
+        <v>0.002782484018692568</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03255746052496796</v>
+        <v>0.08273207498967187</v>
       </c>
       <c r="C61">
-        <v>0.1278435783331717</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01260062270037616</v>
+      </c>
+      <c r="D61">
+        <v>0.1167050571777035</v>
+      </c>
+      <c r="E61">
+        <v>0.03977748007165887</v>
+      </c>
+      <c r="F61">
+        <v>-0.01238573485454882</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.04146956536705112</v>
+        <v>0.1698336227325091</v>
       </c>
       <c r="C62">
-        <v>0.1674894376990937</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.0188149154355099</v>
+      </c>
+      <c r="D62">
+        <v>0.008943157283404495</v>
+      </c>
+      <c r="E62">
+        <v>0.03525230271039095</v>
+      </c>
+      <c r="F62">
+        <v>-0.03762079052267545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01353399507988114</v>
+        <v>0.04316040383049224</v>
       </c>
       <c r="C63">
-        <v>0.05613863144569164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002464776869833332</v>
+      </c>
+      <c r="D63">
+        <v>0.05782700533705569</v>
+      </c>
+      <c r="E63">
+        <v>0.02068879764430829</v>
+      </c>
+      <c r="F63">
+        <v>-0.00392800000575024</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02592311752772529</v>
+        <v>0.1105016858506238</v>
       </c>
       <c r="C64">
-        <v>0.09896143990627111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01154033161065523</v>
+      </c>
+      <c r="D64">
+        <v>0.04190149792958089</v>
+      </c>
+      <c r="E64">
+        <v>0.02111469719723889</v>
+      </c>
+      <c r="F64">
+        <v>-0.02588848896817828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.0458699553194947</v>
+        <v>0.1473017329692096</v>
       </c>
       <c r="C65">
-        <v>0.1072411903559164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03169365920608716</v>
+      </c>
+      <c r="D65">
+        <v>-0.0420353146278345</v>
+      </c>
+      <c r="E65">
+        <v>9.731352738052186e-05</v>
+      </c>
+      <c r="F65">
+        <v>-0.03824392393267618</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04484320884360846</v>
+        <v>0.1278319217284964</v>
       </c>
       <c r="C66">
-        <v>0.2018168103924763</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01469708806791687</v>
+      </c>
+      <c r="D66">
+        <v>0.1418373589380236</v>
+      </c>
+      <c r="E66">
+        <v>0.06696218411877924</v>
+      </c>
+      <c r="F66">
+        <v>-0.03087130071325938</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01644000577506975</v>
+        <v>0.06324852794501543</v>
       </c>
       <c r="C67">
-        <v>0.06961784601468751</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003039333980597734</v>
+      </c>
+      <c r="D67">
+        <v>0.05582392201955872</v>
+      </c>
+      <c r="E67">
+        <v>0.01810712727690252</v>
+      </c>
+      <c r="F67">
+        <v>0.03228503871166385</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01709784364893747</v>
+        <v>0.1166162559520172</v>
       </c>
       <c r="C68">
-        <v>0.0283867187653744</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02768583864031867</v>
+      </c>
+      <c r="D68">
+        <v>-0.2593242941599214</v>
+      </c>
+      <c r="E68">
+        <v>-0.08743044393979151</v>
+      </c>
+      <c r="F68">
+        <v>-0.005099551596465436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.009852845678204212</v>
+        <v>0.0391498626682088</v>
       </c>
       <c r="C69">
-        <v>0.03178982321089387</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.001057499480502639</v>
+      </c>
+      <c r="D69">
+        <v>0.008063779303019188</v>
+      </c>
+      <c r="E69">
+        <v>0.02349694241894629</v>
+      </c>
+      <c r="F69">
+        <v>0.001102029966851876</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0003533454534046452</v>
+        <v>0.0625819479478493</v>
       </c>
       <c r="C70">
-        <v>0.03421065383047978</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02880251201446898</v>
+      </c>
+      <c r="D70">
+        <v>0.0293843217884737</v>
+      </c>
+      <c r="E70">
+        <v>-0.04236526642980255</v>
+      </c>
+      <c r="F70">
+        <v>0.1884670972220114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02144152278441388</v>
+        <v>0.1358063946693282</v>
       </c>
       <c r="C71">
-        <v>0.03416995715110037</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03240110151034202</v>
+      </c>
+      <c r="D71">
+        <v>-0.2730089395164718</v>
+      </c>
+      <c r="E71">
+        <v>-0.09689527741667164</v>
+      </c>
+      <c r="F71">
+        <v>-0.01106357865061865</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03938725667010273</v>
+        <v>0.1415232598350799</v>
       </c>
       <c r="C72">
-        <v>0.1187538597628188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02537497690773153</v>
+      </c>
+      <c r="D72">
+        <v>0.0007513236137024134</v>
+      </c>
+      <c r="E72">
+        <v>0.03974099425191991</v>
+      </c>
+      <c r="F72">
+        <v>-0.03485261494322477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.04351782294634967</v>
+        <v>0.2011330352033112</v>
       </c>
       <c r="C73">
-        <v>0.202236013745684</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01242037024382162</v>
+      </c>
+      <c r="D73">
+        <v>0.01438632604906657</v>
+      </c>
+      <c r="E73">
+        <v>0.06432868624343716</v>
+      </c>
+      <c r="F73">
+        <v>-0.03813725138194234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02530450503355887</v>
+        <v>0.09479443948010373</v>
       </c>
       <c r="C74">
-        <v>0.1136042083275937</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01273114780385141</v>
+      </c>
+      <c r="D74">
+        <v>0.01850512430199367</v>
+      </c>
+      <c r="E74">
+        <v>0.04538147952073248</v>
+      </c>
+      <c r="F74">
+        <v>-0.05724269165083559</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04733890176885976</v>
+        <v>0.1288880505071241</v>
       </c>
       <c r="C75">
-        <v>0.1336791318597922</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02712909949295374</v>
+      </c>
+      <c r="D75">
+        <v>0.03107847251924468</v>
+      </c>
+      <c r="E75">
+        <v>0.05894369072011298</v>
+      </c>
+      <c r="F75">
+        <v>-0.01998399641302327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.001042602515769096</v>
+        <v>0.002158665491359851</v>
       </c>
       <c r="C76">
-        <v>0.007766070846648172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0005704478105552099</v>
+      </c>
+      <c r="D76">
+        <v>-0.001575724582951195</v>
+      </c>
+      <c r="E76">
+        <v>0.0002239316986041668</v>
+      </c>
+      <c r="F76">
+        <v>-0.002976478098343398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02531561418062602</v>
+        <v>0.07982224650526816</v>
       </c>
       <c r="C77">
-        <v>0.1060205190584693</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008542850239416051</v>
+      </c>
+      <c r="D77">
+        <v>0.1193668303337718</v>
+      </c>
+      <c r="E77">
+        <v>0.04320592037756232</v>
+      </c>
+      <c r="F77">
+        <v>-0.02851258569344476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.06254264553977262</v>
+        <v>0.1026442799028591</v>
       </c>
       <c r="C78">
-        <v>0.1133107829254301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03998641876776773</v>
+      </c>
+      <c r="D78">
+        <v>0.1155549244194031</v>
+      </c>
+      <c r="E78">
+        <v>0.0790611671850944</v>
+      </c>
+      <c r="F78">
+        <v>-0.04897464639934322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.04184233363393353</v>
+        <v>0.1645577523298718</v>
       </c>
       <c r="C79">
-        <v>0.1432564063295771</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02129481270315752</v>
+      </c>
+      <c r="D79">
+        <v>0.01763440980787255</v>
+      </c>
+      <c r="E79">
+        <v>0.04801409252544592</v>
+      </c>
+      <c r="F79">
+        <v>-0.01459199909161288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.005367331882224482</v>
+        <v>0.08098062649863261</v>
       </c>
       <c r="C80">
-        <v>0.09629468298883706</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0008101065393210858</v>
+      </c>
+      <c r="D80">
+        <v>0.05724980669338725</v>
+      </c>
+      <c r="E80">
+        <v>0.03695693693757054</v>
+      </c>
+      <c r="F80">
+        <v>0.02679399237417189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.0472842725811709</v>
+        <v>0.1229313989955255</v>
       </c>
       <c r="C81">
-        <v>0.1527502941410498</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03112207366794344</v>
+      </c>
+      <c r="D81">
+        <v>0.01644771810656161</v>
+      </c>
+      <c r="E81">
+        <v>0.05882036112858255</v>
+      </c>
+      <c r="F81">
+        <v>-0.01876851774753124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04112378347665017</v>
+        <v>0.1649451126354414</v>
       </c>
       <c r="C82">
-        <v>0.169978354190977</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02347637530750101</v>
+      </c>
+      <c r="D82">
+        <v>0.005947171298951816</v>
+      </c>
+      <c r="E82">
+        <v>0.02884278956488921</v>
+      </c>
+      <c r="F82">
+        <v>-0.08006050326318689</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01771442898914496</v>
+        <v>0.06148657892403709</v>
       </c>
       <c r="C83">
-        <v>0.07925316857878059</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003352424999270189</v>
+      </c>
+      <c r="D83">
+        <v>0.04969997639743837</v>
+      </c>
+      <c r="E83">
+        <v>0.006292938274765622</v>
+      </c>
+      <c r="F83">
+        <v>0.03320524945899658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02499130410921038</v>
+        <v>0.05845854368248536</v>
       </c>
       <c r="C84">
-        <v>0.07236511522075882</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01097616025025192</v>
+      </c>
+      <c r="D84">
+        <v>0.06586513537360869</v>
+      </c>
+      <c r="E84">
+        <v>0.007165900048699235</v>
+      </c>
+      <c r="F84">
+        <v>-0.007316185357177798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.04123563925753713</v>
+        <v>0.1381499559832789</v>
       </c>
       <c r="C85">
-        <v>0.1192836300556778</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02703718731880958</v>
+      </c>
+      <c r="D85">
+        <v>0.01135123280659831</v>
+      </c>
+      <c r="E85">
+        <v>0.03902343922313983</v>
+      </c>
+      <c r="F85">
+        <v>-0.04761410072103842</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.02049920829131523</v>
+        <v>0.09582360356495306</v>
       </c>
       <c r="C86">
-        <v>0.11639572373681</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006817749092324727</v>
+      </c>
+      <c r="D86">
+        <v>0.04028719524610923</v>
+      </c>
+      <c r="E86">
+        <v>0.2103933564799277</v>
+      </c>
+      <c r="F86">
+        <v>0.9086251008817561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04600930408899988</v>
+        <v>0.0958924019332308</v>
       </c>
       <c r="C87">
-        <v>0.1103910005217977</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02180831740712713</v>
+      </c>
+      <c r="D87">
+        <v>0.09205448385223343</v>
+      </c>
+      <c r="E87">
+        <v>-0.05306632677343898</v>
+      </c>
+      <c r="F87">
+        <v>-0.05365929488187465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01534185544669771</v>
+        <v>0.06091584265942358</v>
       </c>
       <c r="C88">
-        <v>0.05737658984777793</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002474232346088612</v>
+      </c>
+      <c r="D88">
+        <v>0.05073167393714838</v>
+      </c>
+      <c r="E88">
+        <v>0.02515050376483617</v>
+      </c>
+      <c r="F88">
+        <v>-0.01395509533473943</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.00267019025388936</v>
+        <v>0.1342673402540566</v>
       </c>
       <c r="C89">
-        <v>0.05967037153460473</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.009891021903132248</v>
+      </c>
+      <c r="D89">
+        <v>-0.2508792839766348</v>
+      </c>
+      <c r="E89">
+        <v>-0.08932392153260382</v>
+      </c>
+      <c r="F89">
+        <v>0.005051560383080583</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02123777477872107</v>
+        <v>0.1479964197915585</v>
       </c>
       <c r="C90">
-        <v>0.03719076016149317</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02821111035925458</v>
+      </c>
+      <c r="D90">
+        <v>-0.2655717148768218</v>
+      </c>
+      <c r="E90">
+        <v>-0.1110268904648336</v>
+      </c>
+      <c r="F90">
+        <v>0.00285835959965475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02462750178947594</v>
+        <v>0.1196242518998418</v>
       </c>
       <c r="C91">
-        <v>0.0922965757005856</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01767831980970949</v>
+      </c>
+      <c r="D91">
+        <v>-0.01077034249377085</v>
+      </c>
+      <c r="E91">
+        <v>0.05683756433751026</v>
+      </c>
+      <c r="F91">
+        <v>0.001468285410347319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.002248480318608585</v>
+        <v>0.1475748997093866</v>
       </c>
       <c r="C92">
-        <v>0.05662427498578163</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02025674607242292</v>
+      </c>
+      <c r="D92">
+        <v>-0.2906041783701678</v>
+      </c>
+      <c r="E92">
+        <v>-0.1017529202199476</v>
+      </c>
+      <c r="F92">
+        <v>0.01523157972600864</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01604879201078349</v>
+        <v>0.1511214720836646</v>
       </c>
       <c r="C93">
-        <v>0.04153239847206739</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.0242698635942609</v>
+      </c>
+      <c r="D93">
+        <v>-0.2656684786973904</v>
+      </c>
+      <c r="E93">
+        <v>-0.07825116495377089</v>
+      </c>
+      <c r="F93">
+        <v>-0.003414437100389286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.049178099172126</v>
+        <v>0.131875260704688</v>
       </c>
       <c r="C94">
-        <v>0.157417330726018</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.024151873070922</v>
+      </c>
+      <c r="D94">
+        <v>0.04406478886144217</v>
+      </c>
+      <c r="E94">
+        <v>0.05840972556148251</v>
+      </c>
+      <c r="F94">
+        <v>-0.03710051974102316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.04036872856338508</v>
+        <v>0.1257303817937656</v>
       </c>
       <c r="C95">
-        <v>0.1344142752765803</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004640395922888739</v>
+      </c>
+      <c r="D95">
+        <v>0.09256612829372814</v>
+      </c>
+      <c r="E95">
+        <v>0.04813862743116561</v>
+      </c>
+      <c r="F95">
+        <v>0.01006236164804776</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9675450839406263</v>
+        <v>0.1016983538242929</v>
       </c>
       <c r="C96">
-        <v>0.2348939396397626</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9883589201815471</v>
+      </c>
+      <c r="D96">
+        <v>-0.03739840203241952</v>
+      </c>
+      <c r="E96">
+        <v>0.05637003000887142</v>
+      </c>
+      <c r="F96">
+        <v>-0.04344016962698499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.01973349035390522</v>
+        <v>0.1910959206347394</v>
       </c>
       <c r="C97">
-        <v>0.1758219851312234</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.009158349871383649</v>
+      </c>
+      <c r="D97">
+        <v>-0.01776942228269122</v>
+      </c>
+      <c r="E97">
+        <v>0.0138583588801246</v>
+      </c>
+      <c r="F97">
+        <v>0.0956899274691328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.03470644008766608</v>
+        <v>0.2060530938472443</v>
       </c>
       <c r="C98">
-        <v>0.1999349095815917</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.007529804787572833</v>
+      </c>
+      <c r="D98">
+        <v>0.006365104850271587</v>
+      </c>
+      <c r="E98">
+        <v>-0.08770743595855963</v>
+      </c>
+      <c r="F98">
+        <v>0.09208758462794336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003798361884677228</v>
+        <v>0.05566180030455777</v>
       </c>
       <c r="C99">
-        <v>0.05633995567934284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004531345460142375</v>
+      </c>
+      <c r="D99">
+        <v>0.03845515015817663</v>
+      </c>
+      <c r="E99">
+        <v>0.02359570127289873</v>
+      </c>
+      <c r="F99">
+        <v>-0.0001957778139670663</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.004238679705618874</v>
+        <v>0.1247240606937765</v>
       </c>
       <c r="C100">
-        <v>0.1359031792961811</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.0527711320396802</v>
+      </c>
+      <c r="D100">
+        <v>0.3497736977219628</v>
+      </c>
+      <c r="E100">
+        <v>-0.8873805479561463</v>
+      </c>
+      <c r="F100">
+        <v>0.1361016536362737</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01584048141903399</v>
+        <v>0.0264208611570197</v>
       </c>
       <c r="C101">
-        <v>0.02730991839549726</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008250190420766277</v>
+      </c>
+      <c r="D101">
+        <v>0.03279459124179735</v>
+      </c>
+      <c r="E101">
+        <v>0.01034588131472096</v>
+      </c>
+      <c r="F101">
+        <v>0.01215192263574647</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
